--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_2_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_2_sine_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.965579888904514, 50.07443299933507]</t>
+          <t>[49.96555634561868, 50.07445654262091]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.98100187362157, 50.05877524554237]</t>
+          <t>[49.98107618869848, 50.05870093046546]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.96180016009831, 50.1088014907674]</t>
+          <t>[49.96166040260586, 50.10894124825985]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.9543247208856, 50.03191776476738]</t>
+          <t>[49.95446495664381, 50.03177752900917]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_2_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_2_sine_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.96555634561868, 50.07445654262091]</t>
+          <t>[49.96552536850443, 50.07448751973516]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.98107618869848, 50.05870093046546]</t>
+          <t>[49.9810687725671, 50.058708346596845]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.96166040260586, 50.10894124825985]</t>
+          <t>[49.961617320743656, 50.108984330122055]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.95446495664381, 50.03177752900917]</t>
+          <t>[49.95443500848469, 50.03180747716829]</t>
         </is>
       </c>
       <c r="U3" t="n">
